--- a/data/precos_mad.xlsx
+++ b/data/precos_mad.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>`</t>
+    <t/>
   </si>
   <si>
     <t>pr_mad</t>
@@ -103,7 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -117,6 +117,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -139,29 +146,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -482,7 +482,7 @@
     <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>0.09080335317627213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -506,7 +506,7 @@
         <v>0.1626677886070654</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.2565437459603294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0.1081494150241766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.1165599400010181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -538,7 +538,7 @@
         <v>0.1562510173876234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -546,7 +546,7 @@
         <v>0.3055594976072493</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.2619635066964562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0.08666819391482124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0.165563238573645</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0.148581242364878</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0.4991015822780627</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0.2483347908351897</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0.1604708997973945</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.2152672449801298</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0.311707958476439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.1302711105280786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.5283119899936476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0.2772493812293168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
